--- a/tinnhannhanh/data.xlsx
+++ b/tinnhannhanh/data.xlsx
@@ -1,21 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itc\tinnhannhanh\chucnang\tinnhannhanh\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D863F8C6-DD07-41DD-9418-8FF2E6C20F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+  <!-- Generated by Aspose.Words for .NET 24.5.0 -->
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -68,7 +57,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -94,7 +83,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -128,7 +117,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -161,7 +150,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -182,7 +171,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -208,7 +197,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -229,7 +218,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -268,7 +257,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -294,7 +283,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -316,7 +305,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -341,7 +330,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -362,7 +351,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -391,7 +380,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -412,7 +401,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -437,7 +426,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -478,7 +467,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -499,7 +488,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -520,7 +509,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -544,7 +533,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -565,7 +554,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -586,7 +575,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -611,7 +600,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -645,7 +634,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -679,7 +668,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -713,7 +702,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -736,7 +725,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -761,7 +750,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -790,7 +779,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -801,9 +790,9 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
+        <sz val="12"/>
+        <color rgb="0000ff"/>
+        <u val="single"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -812,7 +801,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -834,7 +823,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -857,7 +846,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -878,7 +867,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -922,7 +911,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -947,7 +936,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -957,7 +946,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -966,7 +955,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -976,7 +965,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -985,7 +974,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -995,7 +984,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -1004,7 +993,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1014,7 +1003,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -1023,7 +1012,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1033,7 +1022,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -1042,7 +1031,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1052,7 +1041,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -1061,7 +1050,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1071,7 +1060,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
@@ -1080,7 +1069,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1102,7 +1091,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1123,7 +1112,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1148,7 +1137,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1169,7 +1158,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1229,7 +1218,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1254,7 +1243,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1301,7 +1290,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1311,7 +1300,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1320,7 +1309,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1330,7 +1319,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1339,7 +1328,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1349,7 +1338,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1358,7 +1347,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1368,7 +1357,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1377,7 +1366,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1387,7 +1376,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1396,7 +1385,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1418,7 +1407,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1435,8 +1424,8 @@
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
+        <u val="single"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1444,8 +1433,8 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
+        <sz val="12"/>
+        <u val="single"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1453,8 +1442,8 @@
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
+        <u val="single"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -1462,8 +1451,8 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
+        <sz val="12"/>
+        <u val="single"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1472,7 +1461,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1498,7 +1487,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1507,7 +1496,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1517,7 +1506,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1526,7 +1515,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1536,7 +1525,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1545,7 +1534,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1555,7 +1544,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1564,7 +1553,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1574,7 +1563,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Symbol"/>
         <family val="1"/>
       </rPr>
@@ -1583,7 +1572,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1605,7 +1594,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1640,7 +1629,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1665,7 +1654,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1687,7 +1676,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1722,7 +1711,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1743,7 +1732,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1784,7 +1773,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1809,7 +1798,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1844,7 +1833,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1872,7 +1861,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1907,7 +1896,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1942,7 +1931,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1963,7 +1952,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1997,7 +1986,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2019,7 +2008,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2040,7 +2029,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2131,7 +2120,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2153,7 +2142,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2174,7 +2163,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2199,7 +2188,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2233,7 +2222,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2254,7 +2243,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2288,7 +2277,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2312,7 +2301,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2329,7 +2318,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2339,7 +2328,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2364,7 +2353,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2398,7 +2387,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2407,9 +2396,9 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
+        <sz val="12"/>
+        <color rgb="0000ff"/>
+        <u val="single"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2418,7 +2407,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2444,7 +2433,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2477,7 +2466,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2485,9 +2474,9 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
+        <sz val="12"/>
+        <color rgb="0000ff"/>
+        <u val="single"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2496,7 +2485,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2517,7 +2506,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2538,7 +2527,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2559,7 +2548,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2580,7 +2569,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2616,7 +2605,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2649,7 +2638,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2682,7 +2671,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
+        <color rgb="1c1e21"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2705,8 +2694,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2725,7 +2714,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF1C1E21"/>
+      <color rgb="1c1e21"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2736,48 +2725,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF1C1E21"/>
+      <color rgb="1c1e21"/>
       <name val="Symbol"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <vertAlign val="superscript"/>
       <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1C1E21"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF1C1E21"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <vertAlign val="superscript"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2789,32 +2746,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
+        <fgColor rgb="e7e6e6"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
+      <vertical/>
+      <horizontal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <start style="thin"/>
+      <end style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
+      <vertical/>
+      <horizontal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -2822,1114 +2775,783 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="76.77734375"/>
+    <col min="1" max="1" width="8.3438"/>
+    <col min="2" max="2" width="12.9631"/>
+    <col min="3" max="3" width="76.7642"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="312" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="156" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s" s="3">
         <v>49</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" t="s" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" t="s" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s" s="3">
         <v>53</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s" s="3">
         <v>57</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" t="s" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" t="s" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" t="s" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s" s="3">
         <v>67</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" t="s" s="7">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" t="s" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="8" t="s">
+      <c r="B40" t="s" s="8">
         <v>75</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s" s="3">
         <v>77</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" t="s" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s" s="3">
         <v>81</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="285.60000000000002" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" t="s" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" t="s" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="156" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46" s="2"/>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s" s="3">
         <v>87</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" t="s" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s" s="3">
         <v>89</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" t="s" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s" s="3">
         <v>91</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" t="s" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" t="s" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s" s="3">
         <v>95</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" t="s" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s" s="3">
         <v>97</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" t="s" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s" s="3">
         <v>99</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s" s="3">
         <v>101</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" t="s" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s" s="3">
         <v>103</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" t="s" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s" s="3">
         <v>105</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" t="s" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s" s="3">
         <v>107</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" t="s" s="6">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57" s="2"/>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s" s="3">
         <v>109</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" t="s" s="6">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58" s="2"/>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s" s="3">
         <v>111</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" t="s" s="6">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="2"/>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s" s="3">
         <v>113</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" t="s" s="6">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="2"/>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s" s="3">
         <v>115</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" t="s" s="6">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="2"/>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" t="s" s="6">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="2"/>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s" s="3">
         <v>119</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" t="s" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="2"/>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s" s="3">
         <v>121</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" t="s" s="6">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="64">
       <c r="A64" s="2"/>
-      <c r="B64" s="8" t="s">
+      <c r="B64" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" t="s" s="6">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="2"/>
-      <c r="B66" s="8" t="s">
+      <c r="B66" t="s" s="8">
         <v>127</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="2"/>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s" s="3">
         <v>129</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" t="s" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" t="s" s="6">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="2"/>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s" s="3">
         <v>133</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" t="s" s="6">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+    <row r="70">
       <c r="A70" s="2"/>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s" s="3">
         <v>135</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" t="s" s="6">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+    <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="8" t="s">
+      <c r="B71" t="s" s="8">
         <v>137</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s" s="4">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="72">
       <c r="A72" s="2"/>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" t="s" s="6">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+    <row r="73">
       <c r="A73" s="2"/>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s" s="3">
         <v>141</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" t="s" s="6">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="74">
       <c r="A74" s="10"/>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s" s="3">
         <v>143</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" t="s" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="75">
       <c r="A75" s="11"/>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s" s="3">
         <v>145</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" t="s" s="6">
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="76">
       <c r="A76" s="11"/>
-      <c r="B76" s="8" t="s">
+      <c r="B76" t="s" s="8">
         <v>147</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="77">
       <c r="A77" s="11"/>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="78">
       <c r="A78" s="11"/>
-      <c r="B78" s="8" t="s">
+      <c r="B78" t="s" s="8">
         <v>151</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" t="s" s="6">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="79">
       <c r="A79" s="10"/>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s" s="3">
         <v>153</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="80">
       <c r="A80" s="10"/>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s" s="3">
         <v>155</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="81">
       <c r="A81" s="10"/>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s" s="3">
         <v>157</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="82">
       <c r="A82" s="10"/>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s" s="3">
         <v>159</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="83">
       <c r="A83" s="10"/>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s" s="4">
         <v>162</v>
       </c>
     </row>

--- a/tinnhannhanh/data.xlsx
+++ b/tinnhannhanh/data.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itc\tinnhannhanh\chucnang\tinnhannhanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itc\tinnhannhanh\tinnhannhanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D863F8C6-DD07-41DD-9418-8FF2E6C20F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B20BBA-1485-4B21-938C-AE594E06878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <r>
       <rPr>
@@ -68,22 +68,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Thí sinh chuẩn bị Hồ sơ xét học bạ năm 2024:
-** Bước 1: Đăng ký thông tin tại link: https://tuyensinh.itc.edu.vn/
-** Bước 2: Chụp hình bản gốc các giấy tờ dưới đây, gửi qua Zalo để trường xét và gửi giấy thông báo trúng tuyển cho em:
-- 01 Học bạ lớp 10,11,12.
-- 01 Căn cước công dân.Chi tiết liên hệ sđt 093 886 1080 - 097 500 5356 để được hướng dẫn.
-Trân trọng!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -94,57 +78,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Ngành Công nghệ thông tin học trong 2 năm (6 học kỳ), mức học phí được phân bổ như sau (92 tín chỉ - 495.000đ/tín chỉ):
-    - Học kỳ 1 (18 tín chỉ): 8.910.000 đ
-- Học kỳ 2 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 3 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 4 (16 tín chỉ): 7.920.000 đ
-- Học kỳ 5 (18 tín chỉ): 8.910.000 đ
-- Học kỳ 6 (6 tín chỉ): 2.970.000 đ
-    Tổng cộng: 45.540.000đ
-    Lưu ý: Mức học phí trên chưa bao gồm:
-    Lệ phí xét tuyển: 30.000đ
-    Lệ phí nhập học: 200.000đ
-    Đồng phục+ Cẩm nang SV: 123.000đ
-    Thẻ sinh viên đa năng 2 năm: 360.000 đ
-    BHYT + BHTN: thông báo sau"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>Học phí ngành CNTT (Chất lượng cao)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành CNTT (chất lượng cao) được phân bổ 6 học kỳ như sau: (94 tín chỉ - 640k/tín chỉ)
-- Học kỳ 1 (18 tín chỉ): 11.520.000 đ
-- Học kỳ 2 (20 tín chỉ): 12.800.000 đ
-- Học kỳ 3 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 4 (16 tín chỉ): 10.880.000 đ
-- Học kỳ 5 (18 tín chỉ): 11.520.000 đ
-- Học kỳ 6 (6 tín chỉ): 3.840.000 đ
-Tổng cộng: 60.160.000 đ
-Lưu ý: Mức học phí trên chưa bao gồm: 
-Lệ phí nhập học: 200.000 đ
-Đồng phục+ Cẩm nang SV: 123.000 đ
-Thẻ sinh viên đa năng: 360.000 đ
-Bảo hiểm y tế: theo quy định của nhà nước</t>
     </r>
   </si>
   <si>
@@ -294,18 +231,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trường đang nhận đăng ký xét tuyển, Em vào link này đăng ký nhé: https://tuyensinh.itc.edu.vn
-(Sau khi đăng ký xong, trường sẽ gửi email hướng dẫn em làm hồ sơ xét tuyển em nhé)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -341,40 +266,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí nhà trường tính theo đơn giá tín chỉ em nhé (495.000 đ/ tín chỉ). Mỗi ngành có số lượng tín chỉ khác nhau. Em đang quan tâm đến ngành nào vậy ạ, để nhà trường gửi thông tin chương trình ngành học và học phí cho em tham khảo nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>Hội SV - Đoàn TN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Em liên hệ Hội sinh viên - Đoàn thanh niên (lầu A.308) nha em.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
     </r>
   </si>
   <si>
@@ -520,20 +415,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Logistics là một phần rất quan trọng trong kinh doanh xuất nhập khẩu. Nói nôm na, Logistics là vận chuyển hàng hóa quốc tế từ nơi bán đến nơi mua như đóng gói hàng hóa, thuê tàu , làm thủ tục hải quan xuất nhập khẩu, thanh toán quốc tế, …. Học xong ngành Logistics sinh viên sẽ làm được ở các vị trí chuyên môn sâu về Logistics như nhân viên thu mua, lên kế hoạch vận chuyển, nhân viên thanh toán quốc tế, nhân viên hiện trường, kho bãi, nhân viên chứng từ, …
-Còn ngành kinh doanh xuất nhập khẩu học rộng hơn, học về toàn bộ quy trình xuất nhập khẩu hàng hóa từ cách quảng cáo, marketing cho doanh nghiệp để tìm kiếm khách hàng, lên phương án sản xuất, thu mua nguyên vật liệu, tổ chức sản xuất, logistics, thanh toán, hậu mãi, kế toán trong doanh nghiệp XNK …
-Tại sao không đào tạo 1 ngành Kinh doanh xuất nhập khẩu thôi (vì ngành này sinh viên được học cả kiến thức của Logisitcs) mà còn đào tạo thêm ngành Logistics? Ngành Kinh doanh xuất nhập khẩu học rộng hơn ngành Logistics, thiên về hướng kinh doanh hơn, còn ngành Logistics học chuyên sâu về 1 phần của xuất nhập khẩu là Logistics, phù hợp với những bạn thích làm các công việc chuyên môn sâu hơn là kinh doanh liên quan đến xuất nhập khẩu. Logistics là một mảng rất quan trọng, gần như là quan trọng nhất trong XNK, và hiện nay các doanh nghiệp cũng đang khát nhân lực có kiến thức chuyên sâu hẳn về Logistics bên cạnh các nhân sự xuất nhập khẩu khác.
-Do đó, việc lựa chọn ngành học nào là tùy vào sở thích của thí sinh, nếu bạn muốn làm các công việc chuyên môn sâu thì bạn nên học Logistics, còn nếu bạn muốn làm các công việc thiên về hướng kinh doanh như marketing, quảng cáo, sale, thanh toán quốc tế, kế toán, sản xuất trong lĩnh vực xuất nhập khẩu thì bạn nên chọn học Kinh doanh xuất nhập khẩu. Và chia sẻ thêm là ngành Logistics phù hợp hơn với các bạn nam vì áp lực công việc cực kì lớn và cần phải đi công tác nhiều, tuy nhiên nếu bạn là nữ và yêu thích các công việc như tổ chức đóng gói hàng hóa, liên hệ hãng tàu để thuê tàu, làm thủ tục hải quan xuất nhập khẩu, điều phối container, kho bãi, … thì bạn hoàn toán có thể hoàn thành tốt công việc Logistics.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -586,49 +467,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Em tốt nghiệp THPT, em chuẩn bị hồ sơ xét tuyển hệ Trung cấp chính quy như sau nha em:
-1. Phiếu đăng ký xét tuyển vào trường Cao đẳng CNTT Tp. HCM;
-2. Bản photo học bạ THPT
-3. Bản photo bằng tốt nghiệp THPT hoặc giấy chứng nhận tốt nghiệp tạm thời (trong trường hợp chưa có bằng tốt nghiệp).
-4. Căn cước công dân photo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>Học phí ngành CÔNG NGHỆ KỸ THUẬT ĐIỆN TỬ - TRUYỀN THÔNG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"Liên thông Cao đẳng Ngành Công nghệ kỹ thuật điện tử, truyền thông học trong 1 năm (3 học kỳ), mức học phí được phân bổ như sau: (92 tín chỉ - 495.000đ/tín chỉ):
-    - Học kỳ 1 (19 tín chỉ): 9.405.000 đ 
-    - Học kỳ 2 (17 tín chỉ): 8.415.000 đ 
-    - Học kỳ 3 (18 tín chỉ): 8.910.000 đ 
-    - Học kỳ 4 (15 tín chỉ): 7.425.000 đ
-    - Học kỳ 5 (17 tín chỉ): 8.415.000 đ
-    - Học kỳ 6 (6 tín chỉ): 2.970.000 đ
-    Tổng cộng: 45.540.000 đ
-    Lưu ý: Mức học phí trên chưa bao gồm:
-    Lệ phí xét tuyển: 30.000đ
-    Lệ phí nhập học: 200.000đ
-    Đồng phục+ Cẩm nang SV: 123.000đ
-    Thẻ sinh viên đa năng: 360.000đ
-    BHYT + BHTN: thông báo sau"</t>
     </r>
   </si>
   <si>
@@ -784,40 +626,6 @@
         <family val="1"/>
       </rPr>
       <t>Quy chế tuyển sinh của trường</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chào em
-- Trường CĐ CNTT TPHCM đào tạo hệ Cao đẳng 2 năm (3 học kỳ 1 năm, 6 học kỳ 2 năm) đối với thí sinh tốt nghiệp THPT. 
-- Và đào tạo hệ cao đẳng 3,5 năm đối với thí sinh tốt nghiệp THCS. 
-Hiện tại trường đang nhận hồ sơ xét tuyển online qua link: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>https://tuyensinh.itc.edu.vn/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Em có thể đăng ký qua link trên nha, em tốt nghiệp THCS hay đã tốt nghiệp THPT rồi thế em, để Ad tư vấn đúng chương trình tuyển sinh cho em nhé.</t>
     </r>
   </si>
   <si>
@@ -1102,17 +910,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học xong hệ CĐ của trường em đủ điều kiện liên thông lên hệ ĐH của tất cả cac trường ĐH trên các nước có đào tạo hệ liên thông ngành mà em đã học ở Cao đẳng nha</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1169,50 +966,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Em chuẩn bị Hồ sơ nhập học của chương trình 9+ như sau nhé em:
-Phiếu đăng ký xét tuyển vào trường Cao đẳng CNTT TP. HCM;
-Giấy báo nhập học (nhận trực tiếp khi đến làm thủ tục nhập học).
-Sơ yếu lý lịch theo mẫu của trường (nhận trực tiếp khi đến làm thủ tục nhập học).
-Bản sao giấy khai sinh
-Bản sao học bạ THCS hoặc học bạ lớp 10, 11, 12.
-Bản sao bằng tốt nghiệp THCS hoặc bản sao giấy chứng nhận tốt nghiệp tạm thời (trong trường hợp chưa có bằng tốt nghiệp).
-Bản sao hợp lệ các giấy tờ ưu tiên (Nếu có).
-Bản sao căn cước công dân.
-Giấy chứng nhận sức khoẻ do cơ quan y tế có thẩm quyền cấp (không quá 6 tháng).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>Hồ sơ Xét Học Bạ năm 2024</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chào em,
-Trường Cao đẳng Công nghệ Thông tin TPHCM đang nhận đăng ký xét học bạ dành cho các bạn đang học 12 để giữ chỉ tiêu nè, mình vào link này đăng ký giúp nhà trường nhé: https://tuyensinh.itc.edu.vn/
-Sau khi nhà trường đã nhận thông tin đăng ký online của em và đã gửi email THÔNG BÁO TRÚNG TUYỂN. Em  vui lòng kiểm tra Email giúp nhà trường nhé, nếu không nhận được, em vui lòng xem thông báo trên file đính kèm nhà trường gửi qua Zalo cá nhân em của. Và chụp hình các giấy tờ sau (bản gốc) gửi qua Zalo để nhà trường xét tuyển cho mình em nha:
-1. CCCD 2 mặt
-2. Giấy khai sinh
-3. Học bạ THPT
-4. Giấy chứng nhận tốt nghiệp tạm thời THPT hoặc bằng THPT
-Chúc em 1 ngày nhiều năng lượng nhé! 
-Chi tiết liên hệ sđt 093 886 1080 để được hướng dẫn.
-Chúc các bạn học tốt và đạt kết quả cao trong kỳ thi sắp tới.
-Trân trọng! </t>
     </r>
   </si>
   <si>
@@ -1640,37 +1397,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Trường đào tạo hệ Cao đẳng trong vòng 2 năm.
-Tổng 2 năm là 6 học kỳ.
-1 năm 3 học kỳ. 
-1 học kỳ khoảng 3 tháng đến 6.5 tháng em nhé.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>Lịch học</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Mình học theo thời khoá biểu của nhà trường phân bổ theo thời khoá biểu nhé em.
-Trong 1 tuần sẽ có từ 2 đến 3 ngày là các bạn học nguyên ngày, các lại các bạn học 1 buổi em nha</t>
     </r>
   </si>
   <si>
@@ -1722,17 +1452,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Hi em, trường có nhiều CLB lắm em nhé: Bóng chuyền, bóng đá, tin học, thể thao điện tử, văn nghệ, taekwondo, lập trình</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1778,21 +1497,6 @@
         <family val="1"/>
       </rPr>
       <t>Hồ sơ xét tuyển LTCD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Em chuẩn bị hồ sơ PHOTO theo hướng dẫn sau đến trường nộp hồ sơ xét tuyển nhé: 
-Bằng Trung cấp, 
-Bảng điểm trung cấp, 
-Bằng THPT hoặc giấy chứng nhận kèm bảng điểm văn hóa (nếu học văn hóa ở trường trung cấp), 
-CCCD </t>
     </r>
   </si>
   <si>
@@ -1844,24 +1548,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ngành Lập trình máy tính học về:
-- Lập trình front-end, lập trình back-end, lập trình ứng dụng di động, xử lý dữ liệu, thu thập và phân tích yêu cầu khách hàng
-- Có kỹ năng làm việc nhóm với các công cụ GIT, GIThub, Redmine, Jira, Bicbucket, nắm vững qui trình SCRUM, Waterfall
-- Kiến thức về hệ quản trị cơ sở dữ liệu, các phiên bản và tính năng của hệ quản trị cơ sở dữ liệu; Quy trình phân tích và xây dựng cơ sở dữ liệu.
-- Kỹ thuật lập bảng khảo sát, bảng câu hỏi lấy yêu cầu từ khách hàng chuẩn bị cho xây dựng phần mềm ứng dụng; phân tích và thiết kế phần mềm; phương pháp lập trình với các công nghệ tiên tiến (như .Net, Java,…); phân tích và thiết kế ứng dụng trên thiết bị di động
-- Kỹ thuật lập trình trên nền tảng thiết bị di động với các công nghệ tiên tiến ( Android, IOS,…); phương pháp lập trình ứng dụng web; kỹ thuật lập trình ứng dụng máy tính và thiết bị di động;
-- Phát triển phần mềm và quy trình kiểm thử; Các kỹ thuật kiểm thử phần mềm;
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -2040,11 +1726,486 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Học phí Cao Đẳng 9+ được phân bổ 7 học kỳ như sau: (4 kỳ học nghề: 352.000đ/tín chỉ) - (3 kỳ học văn hóa: 12.000đ/tiết)
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>KTX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảng điểm trường khác</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngành Thiết kế đồ họa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chào em, em học ngành Thiết kế đồ họa, em sẽ học được những phần mềm liên quan đến thiết kế: AI, Corel, Photoshop, 2D, 3D. Sau khi tốt nghiệp, em có thể làm ở các vị trí:
+- Chuyên viên trong lĩnh vực đồ họa thiết kế, xử lý ảnh như: quảng cáo, in ấn (Corel), dàn trang sách (Indesign), chế bản ảnh (Photoshop) 
+- Chuyên viên trong lĩnh vực thiết kế web như: thiết kế 2D (Flash Animator), thiết kế giao diện web (Web Designer)
+- Chuyên viên biên tập phim và âm thanh (Audio – video edito), chuyên viên biên kịch (Storyboard), chuyên gia kỹ xảo điện ảnh, hậu kỳ (VFX &amp; Compositor), chuyên gia sản xuất game và dựng mô hình nội ngoại thất (3D Animator, 3D Modeler)
+Em tham khảo chương trình học theo link sau: https://itc.edu.vn/dao-tao/cao-dang/thiet-ke-do-hoa-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành LOGISTICS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Học phí ngành LOGISTICS được phân bổ 6 học kỳ như sau: (85 tín chỉ - 495k/tín chỉ)
+- Học kỳ 1 (17 tín chỉ): 8.415.000 đ 
+- Học kỳ 2 (17 tín chỉ): 8.415.000 đ
+- Học kỳ 3 (17 tín chỉ): 8.415.000 đ
+- Học kỳ 4 (15 tín chỉ): 7.425.000 đ
+- Học kỳ 5 (14 tín chỉ): 6.930.000 đ
+- Học kỳ 6 (5 tín chỉ): 2.475.000 đ
+Tổng cộng: 42.075.000 đ
+Lưu ý: Mức học phí trên chưa bao gồm:
+Lệ phí nhập học: 200.000 đ
+Đồng phục+ Cẩm nang SV: 123.000 đ
+Thẻ sinh viên đa năng: 360.000 đ
+Bảo hiểm y tế: theo quy định của nhà nước
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trường mình là công lập hay dân lập</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành TÀI CHÍNH NGÂN HÀNG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Học phí ngành TÀI CHÍNH NGÂN HÀNG được phân bổ 6 học kỳ như sau: (83 tín chỉ - 495k/tín chỉ)
+- Học kỳ 1 (17 tín chỉ): 8.415.000 đ
+- Học kỳ 2 (20 tín chỉ): 9.900.000 đ
+- Học kỳ 3 (14 tín chỉ): 6.930.000 đ
+- Học kỳ 4 (17 tín chỉ): 8.415.000 đ
+- Học kỳ 5 (10 tín chỉ): 4.950.000 đ
+- Học kỳ 6 (5 tín chỉ): 2.475.000 đ
+Tổng cộng: 41.085.000 đ
+Lưu ý: Mức học phí trên chưa bao gồm:
+Lệ phí nhập học: 200.000 đ
+Đồng phục + Cẩm nang SV: 123.000 đ
+Thẻ sinh viên đa năng: 360.000 đ
+Bảo hiểm y tế: theo quy định của nhà nước
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thời gian làm việc của trường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HÌNH THỨC NỘP HS XÉT TUYỂN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường có 2 hình thức nộp hồ sơ xét tuyển em nhé:
+1. NỘP TRỰC TIẾP:
+đến trực tiếp làm hồ sơ tại trường
+2. NỘP TRỰC TUYẾN:
+Em chuẩn bị hồ sơ (theo hướng dẫn) và CHỤP HÌNH (Trên điện thoại, tải App CamScanner chụp đẹp, rõ ràng) gửi qua:
+Email: tuyensinh@itc.edu.vn
+Hoặc Zalo của trường: 0938861080 - 0975005356
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lệ phí xét tuyển: chuyển khoản theo hướng dẫn sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>* Tên tài khoản: TRUONG CAO DANG CNTT TP HO CHI MINH
+    * Số tài khoản: 98283888
+    * Ngân hàng: TMCP Á Châu (ACB) – PGD Thủ Thiêm TPHCM
+    * Nội dung chuyển khoản: Họ tên-MSHS- (nội dung chuyển khoản)
+    * VD: Nguyen Van A-032456123-LPXT-K24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành MARKETING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Học phí ngành MARKETING được phân bổ 6 học kỳ như sau: (82 tín chỉ - 495k/tín chỉ)
+- Học kỳ 1 (17 tín chỉ): 8.415.000 đ
+- Học kỳ 2 (18 tín chỉ): 8.910.000 đ
+- Học kỳ 3 (13 tín chỉ): 6.435.000 đ
+- Học kỳ 4 (16 tín chỉ): 7.920.000 đ
+- Học kỳ 5 (13 tín chỉ): 6.435.000 đ
+- Học kỳ 6 (5 tín chỉ): 2.475.000 đ
+Tổng cộng: 40.590.000 đ
+Lưu ý: Mức học phí trên chưa bao gồm:
+Lệ phí nhập học: 200.000 đ
+Đồng phục+ Cẩm nang SV: 123.000 đ
+Thẻ sinh viên đa năng: 360.000 đ
+Bảo hiểm y tế: theo quy định của nhà nước
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hồ sơ Xét Tuyển Trung Cấp (Đối tượng tốt nghiệp THCS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành LẬP TRÌNH MÁY TÍNH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành LẬP TRÌNH MÁY TÍNH được phân bổ 6 học kỳ như sau: (90 tín chỉ - 495k/tín chỉ)
+- Học kỳ 1 (18 tín chỉ): 8.910.000 đ
+- Học kỳ 2 (20 tín chỉ): 9.900.000 đ
+- Học kỳ 3 (17 tín chỉ): 8.415.000 đ
+- Học kỳ 4 (16 tín chỉ): 7.920.000 đ
+- Học kỳ 5 (13 tín chỉ): 6.435.000 đ
+- Học kỳ 6 (6 tín chỉ): 2.970.000 đ
+Tổng cộng: 44.550.000 đ
+Lưu ý: Mức học phí trên chưa bao gồm: 
+Lệ phí nhập học: 200.000 đ
+Đồng phục + Cẩm nang SV: 123.000 đ
+Thẻ sinh viên đa năng: 360.000 đ
+Bảo hiểm y tế: theo quy định của nhà nước</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Link HS  lớp 12 đăng ký xét tuyển</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường đang nhận thông tin đăng ký xét tuyển đối với các bạn học sinh lớp 12, em vào link này đăng ký để nhà trường lưu thông tin ưu tiên cho em nhé: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://tuyensinh.itc.edu.vn/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. Sau khi đăng ký xong, trường sẽ gửi email hướng dẫn em làm hồ sơ xét học bạ nha.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cơ hội việc làm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điều kiện nhập học cao đẳng chính quy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hii em, trường tuyển thẳng học sinh tốt nghiệp THPT, em đậu cấp 3 và đã có bằng tốt nghiệp rồi là em đủ điều kiện nhập học Hệ CĐ 2 năm tại trường em nha.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chương trình ngành Quản trị Digital Media</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HÌNH THỨC NHẬP HỌC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường có 2 hình thức làm hồ sơ nhập học em nhé:
+1. NỘP TRỰC TIẾP:
+đến trực tiếp làm hồ sơ tại trường
+2. NỘP TRỰC TUYẾN:
+Hồ sơ nhập học:
+Em chuẩn bị hồ sơ (theo hướng dẫn) và CHỤP HÌNH (chụp đẹp, rõ ràng) gửi qua:
+Email: tuyensinh@itc.edu.vn
+Hoặc Zalo của trường: 0938861080
+Đóng học phí:
+Chuyển khoản qua Ngân hàng:
+Tên tài khoản: Trường Cao đẳng Công nghệ Thông tin TPHCM
+Số tài khoản: 98283888
+Ngân hàng: TMCP Á Châu (ACB) – PGD Phạm Ngọc Thạch TPHCM
+Nội dung chuyển khoản: Họ tên/MSSV/HK1-K24
+VD: Nguyen Van A/032456123/HK1-K24
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành THIẾT KẾ ĐỒ HỌA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành THIẾT KẾ ĐỒ HỌA được phân bổ 6 học kỳ như sau: (89 tín chỉ - 495k/tín chỉ)
+- Học kỳ 1 (19 tín chỉ): 9.405.000 đ
+- Học kỳ 2 (19 tín chỉ): 9.405.000 đ
+- Học kỳ 3 (17 tín chỉ): 8.415.000 đ
+- Học kỳ 4 (14 tín chỉ): 6.930.000 đ
+- Học kỳ 5 (14 tín chỉ): 6.930.000 đ
+- Học kỳ 6 (6 tín chỉ): 2.970.000 đ
+Tổng cộng: 44.055.000 đ
+Lưu ý: Mức học phí trên chưa bao gồm: 
+Lệ phí nhập học: 200.000 đ
+Đồng phục+ Cẩm nang SV: 123.000 đ
+Thẻ sinh viên đa năng: 360.000 đ
+Bảo hiểm y tế: theo quy định của nhà nước</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành QUẢN TRỊ KINH DOANH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành QUẢN TRỊ KINH DOANH được phân bổ 6 học kỳ như sau: (86 tín chỉ - 495k/tín chỉ)
+- Học kỳ 1 (17 tín chỉ): 8.415.000 đ
+- Học kỳ 2 (18 tín chỉ): 8.910.000 đ
+- Học kỳ 3 (15 tín chỉ): 7.425.000 đ
+- Học kỳ 4 (15 tín chỉ): 7.425.000 đ
+- Học kỳ 5 (16 tín chỉ): 7.920.000 đ
+- Học kỳ 6 (5 tín chỉ): 2.475.000
+Tổng cộng: 42.570.000 đ
+Lưu ý: Mức học phí trên chưa bao gồm: 
+Lệ phí nhập học: 200.000 đ
+Đồng phục+ Cẩm nang SV: 123.000 đ
+Thẻ sinh viên đa năng: 360.000 đ
+Bảo hiểm y tế: theo quy định của nhà nước</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành THIẾT KẾ TRANG WEB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Học phí ngành THIẾT KẾ TRANG WEB được phân bổ 6 học kỳ như sau: (99 tín chỉ - 495k/tín chỉ)
+- Học kỳ 1 (18 tín chỉ): 8.910.000 đ
+- Học kỳ 2 (20 tín chỉ): 9.900.000 đ
+- Học kỳ 3 (18 tín chỉ): 8.910.000 đ
+- Học kỳ 4 (20 tín chỉ): 9.900.000 đ
+- Học kỳ 5 (17 tín chỉ): 8.415.000 đ
+- Học kỳ 6 (6 tín chỉ): 2.970.000 đ
+Tổng cộng: 42.570.000 đ
+Lưu ý: Mức học phí trên chưa bao gồm: 
+Lệ phí nhập học: 200.000 đ
+Đồng phục+ Cẩm nang SV: 123.000 đ
+Thẻ sinh viên đa năng: 360.000 đ
+Bảo hiểm y tế: theo quy định của nhà nước</t>
+    </r>
+  </si>
+  <si>
+    <t>Mình học theo thời khoá biểu của nhà trường phân bổ theo thời khoá biểu nhé em.
+Trong 1 tuần sẽ có từ 2 đến 3 ngày là các bạn học nguyên ngày, còn lại các bạn học 1 buổi em nha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Học phí Cao Đẳng 9+ được phân bổ 7 học kỳ như sau: (4 kỳ học nghề: 352.000đ/tín chỉ) - (3 kỳ học văn hóa: 12.000đ/tiết)
 *Tin học ứng dụng:
 - Học kỳ 1 (20 tín chỉ): 7.040.000 đ
 - Học kỳ 2 (18 tín chỉ): 6.336.000 đ
@@ -2115,295 +2276,183 @@
 Thẻ quan lý sinh viên đa năng (Trọn Khóa): 360.000 đ
 BHYT-TN năm 2024: Thông báo sau
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>KTX</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chào em, hiện trường không có KTX, nhưng có bộ phận Công tác sinh viên sẽ hỗ trợ giới thiệu nhà trọ cho em nhé.
-"Phòng Công tác sinh viên sẽ hỗ trợ giới thiệu nhà trọ và KTX cho các bạn. Những nhà trọ và KTX được giới thiệu sẽ ở gần trường, có các bạn sinh viên trường hiện đang ở, đảm bảo về an ninh, tùy theo điều kiện và mong muốn của từng bạn.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bảng điểm trường khác</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nếu em đã học trường khác, em xin bảng điểm để nhà trường xem xét miễn giảm môn theo quy định cho em nha, em xin bảng điểm bên trường cũ xong, em photo sao y chứng thực, và nộp cho trường CĐ CNTT TPHCM 1 bản photo sao y chứng thực nhé</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ngành Thiết kế đồ họa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chào em, em học ngành Thiết kế đồ họa, em sẽ học được những phần mềm liên quan đến thiết kế: AI, Corel, Photoshop, 2D, 3D. Sau khi tốt nghiệp, em có thể làm ở các vị trí:
-- Chuyên viên trong lĩnh vực đồ họa thiết kế, xử lý ảnh như: quảng cáo, in ấn (Corel), dàn trang sách (Indesign), chế bản ảnh (Photoshop) 
-- Chuyên viên trong lĩnh vực thiết kế web như: thiết kế 2D (Flash Animator), thiết kế giao diện web (Web Designer)
-- Chuyên viên biên tập phim và âm thanh (Audio – video edito), chuyên viên biên kịch (Storyboard), chuyên gia kỹ xảo điện ảnh, hậu kỳ (VFX &amp; Compositor), chuyên gia sản xuất game và dựng mô hình nội ngoại thất (3D Animator, 3D Modeler)
-Em tham khảo chương trình học theo link sau: https://itc.edu.vn/dao-tao/cao-dang/thiet-ke-do-hoa-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành LOGISTICS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Học phí ngành LOGISTICS được phân bổ 6 học kỳ như sau: (85 tín chỉ - 495k/tín chỉ)
-- Học kỳ 1 (17 tín chỉ): 8.415.000 đ 
+  </si>
+  <si>
+    <t xml:space="preserve">Trường đào tạo hệ Cao đẳng trong vòng 2 năm.
+Tổng 2 năm là 6 học kỳ.
+1 năm 3 học kỳ. 
+1 học kỳ khoảng 3 tháng đến 3.5 tháng em nhé.
+</t>
+  </si>
+  <si>
+    <t>Thí sinh chuẩn bị Hồ sơ xét học bạ năm 2024:
+** Bước 1: Đăng ký thông tin tại link: https://tuyensinh.itc.edu.vn/
+** Bước 2: Chụp hình bản gốc các giấy tờ dưới đây, gửi qua Zalo để trường xét và gửi giấy thông báo trúng tuyển cho em:
+- 01 Học bạ lớp 10,11,12.
+- 01 Căn cước công dân. Chi tiết liên hệ sđt 093 886 1080 - 097 500 5356 để được hướng dẫn.
+Trân trọng!</t>
+  </si>
+  <si>
+    <t>"Ngành Công nghệ thông tin học trong 2 năm (6 học kỳ), mức học phí được phân bổ như sau (92 tín chỉ - 495.000đ/tín chỉ):
+- Học kỳ 1 (18 tín chỉ): 8.910.000 đ
 - Học kỳ 2 (17 tín chỉ): 8.415.000 đ
 - Học kỳ 3 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 4 (15 tín chỉ): 7.425.000 đ
-- Học kỳ 5 (14 tín chỉ): 6.930.000 đ
-- Học kỳ 6 (5 tín chỉ): 2.475.000 đ
-Tổng cộng: 42.075.000 đ
-Lưu ý: Mức học phí trên chưa bao gồm:
-Lệ phí nhập học: 200.000 đ
-Đồng phục+ Cẩm nang SV: 123.000 đ
-Thẻ sinh viên đa năng: 360.000 đ
-Bảo hiểm y tế: theo quy định của nhà nước
+- Học kỳ 4 (16 tín chỉ): 7.920.000 đ
+- Học kỳ 5 (18 tín chỉ): 8.910.000 đ
+- Học kỳ 6 (6 tín chỉ): 2.970.000 đ
+    Tổng cộng: 45.540.000đ
+    Lưu ý: Mức học phí trên chưa bao gồm:
+    Lệ phí xét tuyển: 30.000đ
+    Lệ phí nhập học: 200.000đ
+    Đồng phục+ Cẩm nang SV: 123.000đ
+    Thẻ sinh viên đa năng 2 năm: 360.000 đ
+    BHYT + BHTN: thông báo sau"</t>
+  </si>
+  <si>
+    <t>Trường đang nhận đăng ký xét tuyển, em vào link này đăng ký nhé: https://tuyensinh.itc.edu.vn
+(Sau khi đăng ký xong, trường sẽ gửi email hướng dẫn em làm hồ sơ xét tuyển em nhé)</t>
+  </si>
+  <si>
+    <t>Học phí nhà trường tính theo đơn giá tín chỉ em nhé (495.000 đ/tín chỉ). Mỗi ngành có số lượng tín chỉ khác nhau. Em đang quan tâm đến ngành nào vậy ạ, để nhà trường gửi thông tin chương trình ngành học và học phí cho em tham khảo nhé.</t>
+  </si>
+  <si>
+    <r>
+      <t>Em liên hệ Hội sinh viên - Đoàn thanh niên (phòng A.308) nha em.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+  </si>
+  <si>
+    <t>Logistics là một phần rất quan trọng trong kinh doanh xuất nhập khẩu. Nói nôm na, Logistics là vận chuyển hàng hóa quốc tế từ nơi bán đến nơi mua như đóng gói hàng hóa, thuê tàu , làm thủ tục hải quan xuất nhập khẩu, thanh toán quốc tế, …. Học xong ngành Logistics sinh viên sẽ làm được ở các vị trí chuyên môn sâu về Logistics như nhân viên thu mua, lên kế hoạch vận chuyển, nhân viên thanh toán quốc tế, nhân viên hiện trường, kho bãi, nhân viên chứng từ, …
+Còn ngành kinh doanh xuất nhập khẩu học rộng hơn, học về toàn bộ quy trình xuất nhập khẩu hàng hóa từ cách quảng cáo, marketing cho doanh nghiệp để tìm kiếm khách hàng, lên phương án sản xuất, thu mua nguyên vật liệu, tổ chức sản xuất, logistics, thanh toán, hậu mãi, kế toán trong doanh nghiệp XNK …
+Tại sao không đào tạo 1 ngành Kinh doanh xuất nhập khẩu thôi (vì ngành này sinh viên được học cả kiến thức của Logisitcs) mà còn đào tạo thêm ngành Logistics? Ngành Kinh doanh xuất nhập khẩu học rộng hơn ngành Logistics, thiên về hướng kinh doanh hơn, còn ngành Logistics học chuyên sâu về 1 phần của xuất nhập khẩu là Logistics, phù hợp với những bạn thích làm các công việc chuyên môn sâu hơn là kinh doanh liên quan đến xuất nhập khẩu. Logistics là một mảng rất quan trọng, gần như là quan trọng nhất trong XNK, và hiện nay các doanh nghiệp cũng đang khát nhân lực có kiến thức chuyên sâu hẳn về Logistics bên cạnh các nhân sự xuất nhập khẩu khác.
+Do đó, việc lựa chọn ngành học nào là tùy vào sở thích của thí sinh, nếu bạn muốn làm các công việc chuyên môn sâu thì bạn nên học Logistics, còn nếu bạn muốn làm các công việc thiên về hướng kinh doanh như marketing, quảng cáo, sale, thanh toán quốc tế, kế toán, sản xuất trong lĩnh vực xuất nhập khẩu thì bạn nên chọn học Kinh doanh xuất nhập khẩu. Và chia sẻ thêm là ngành Logistics phù hợp hơn với các bạn nam vì áp lực công việc cực kì lớn và cần phải đi công tác nhiều, tuy nhiên nếu bạn là nữ và yêu thích các công việc như tổ chức đóng gói hàng hóa, liên hệ hãng tàu để thuê tàu, làm thủ tục hải quan xuất nhập khẩu, điều phối container, kho bãi, … thì bạn hoàn toán có thể hoàn thành tốt công việc Logistics.</t>
+  </si>
+  <si>
+    <t>Em tốt nghiệp THPT, em chuẩn bị hồ sơ xét tuyển hệ Trung cấp chính quy như sau nha em:
+1. Phiếu đăng ký xét tuyển vào trường Cao đẳng CNTT TP.HCM;
+2. Bản photo học bạ THPT
+3. Bản photo bằng tốt nghiệp THPT hoặc giấy chứng nhận tốt nghiệp tạm thời (trong trường hợp chưa có bằng tốt nghiệp).
+4. Căn cước công dân photo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chào em
+- Trường CĐ CNTT TP.HCM đào tạo hệ Cao đẳng 2 năm (3 học kỳ 1 năm, 6 học kỳ 2 năm) đối với thí sinh tốt nghiệp THPT. 
+- Và đào tạo hệ cao đẳng 3,5 năm đối với thí sinh tốt nghiệp THCS. 
+Hiện tại trường đang nhận hồ sơ xét tuyển online qua link: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://tuyensinh.itc.edu.vn/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Em có thể đăng ký qua link trên nha, em tốt nghiệp THCS hay đã tốt nghiệp THPT rồi thế em, để Ad tư vấn đúng chương trình tuyển sinh cho em nhé.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Liên thông Cao đẳng ngành Công nghệ kỹ thuật điện tử, truyền thông học trong 1 năm (3 học kỳ), mức học phí được phân bổ như sau: (92 tín chỉ - 495.000đ/tín chỉ):
+    - Học kỳ 1 (19 tín chỉ): 9.405.000 đ 
+    - Học kỳ 2 (17 tín chỉ): 8.415.000 đ 
+    - Học kỳ 3 (18 tín chỉ): 8.910.000 đ 
+    - Học kỳ 4 (15 tín chỉ): 7.425.000 đ
+    - Học kỳ 5 (17 tín chỉ): 8.415.000 đ
+    - Học kỳ 6 (6 tín chỉ): 2.970.000 đ
+    Tổng cộng: 45.540.000 đ
+    Lưu ý: Mức học phí trên chưa bao gồm:
+    Lệ phí xét tuyển: 30.000đ
+    Lệ phí nhập học: 200.000đ
+    Đồng phục+ Cẩm nang SV: 123.000đ
+    Thẻ sinh viên đa năng: 360.000đ
+    BHYT + BHTN: thông báo sau"</t>
+  </si>
+  <si>
+    <t>Học xong hệ CĐ của trường em đủ điều kiện liên thông lên hệ ĐH của tất cả các trường ĐH trên các nước có đào tạo hệ liên thông ngành mà em đã học ở Cao đẳng nha</t>
+  </si>
+  <si>
+    <t>Em chuẩn bị Hồ sơ nhập học của chương trình 9+ như sau nhé em:
+Phiếu đăng ký xét tuyển vào trường Cao đẳng CNTT TP.HCM;
+Giấy báo nhập học (nhận trực tiếp khi đến làm thủ tục nhập học).
+Sơ yếu lý lịch theo mẫu của trường (nhận trực tiếp khi đến làm thủ tục nhập học).
+Bản sao giấy khai sinh
+Bản sao học bạ THCS hoặc học bạ lớp 10, 11, 12.
+Bản sao bằng tốt nghiệp THCS hoặc bản sao giấy chứng nhận tốt nghiệp tạm thời (trong trường hợp chưa có bằng tốt nghiệp).
+Bản sao hợp lệ các giấy tờ ưu tiên (Nếu có).
+Bản sao căn cước công dân.
+Giấy chứng nhận sức khoẻ do cơ quan y tế có thẩm quyền cấp (không quá 6 tháng).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chào em,
+Trường Cao đẳng Công nghệ Thông tin TP.HCM đang nhận đăng ký xét học bạ dành cho các bạn đang học 12 để giữ chỉ tiêu nè, mình vào link này đăng ký giúp nhà trường nhé: https://tuyensinh.itc.edu.vn/
+Sau khi nhà trường đã nhận thông tin đăng ký online của em và đã gửi email THÔNG BÁO TRÚNG TUYỂN. Em  vui lòng kiểm tra Email giúp nhà trường nhé, nếu không nhận được, em vui lòng xem thông báo trên file đính kèm nhà trường gửi qua Zalo cá nhân em của. Và chụp hình các giấy tờ sau (bản gốc) gửi qua Zalo để nhà trường xét tuyển cho mình em nha:
+1. CCCD 2 mặt
+2. Giấy khai sinh
+3. Học bạ THPT
+4. Giấy chứng nhận tốt nghiệp tạm thời THPT hoặc bằng THPT
+Chúc em 1 ngày nhiều năng lượng nhé! 
+Chi tiết liên hệ sđt 093 886 1080 để được hướng dẫn.
+Chúc các bạn học tốt và đạt kết quả cao trong kỳ thi sắp tới.
+Trân trọng! </t>
+  </si>
+  <si>
+    <t>Hi em, trường có nhiều CLB lắm em nhé: bóng chuyền, bóng đá, tin học, thể thao điện tử, văn nghệ, taekwondo, lập trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em chuẩn bị hồ sơ PHOTO theo hướng dẫn sau đến trường nộp hồ sơ xét tuyển nhé: 
+- Bằng Trung cấp
+- Bảng điểm Trung cấp
+- Bằng THPT hoặc giấy chứng nhận kèm bảng điểm văn hóa (nếu học văn hóa ở trường Trung cấp)
+- CCCD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngành Lập trình máy tính học về:
+- Lập trình front-end, lập trình back-end, lập trình ứng dụng di động, xử lý dữ liệu, thu thập và phân tích yêu cầu khách hàng
+- Có kỹ năng làm việc nhóm với các công cụ GIT, GIThub, Redmine, Jira, Bicbucket, nắm vững qui trình SCRUM, Waterfall
+- Kiến thức về hệ quản trị cơ sở dữ liệu, các phiên bản và tính năng của hệ quản trị cơ sở dữ liệu; quy trình phân tích và xây dựng cơ sở dữ liệu.
+- Kỹ thuật lập bảng khảo sát, bảng câu hỏi lấy yêu cầu từ khách hàng chuẩn bị cho xây dựng phần mềm ứng dụng; phân tích và thiết kế phần mềm; phương pháp lập trình với các công nghệ tiên tiến (như .Net, Java,…); phân tích và thiết kế ứng dụng trên thiết bị di động
+- Kỹ thuật lập trình trên nền tảng thiết bị di động với các công nghệ tiên tiến ( Android, IOS,…); phương pháp lập trình ứng dụng web; kỹ thuật lập trình ứng dụng máy tính và thiết bị di động;
+- Phát triển phần mềm và quy trình kiểm thử; các kỹ thuật kiểm thử phần mềm;
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Trường mình là công lập hay dân lập</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chào em, trường mình là trường CĐ CNTT Tp.HCM thuộc Bộ Lao động thương binh xã hội và là trường dân lập em nhé. Học phí và chương trình học vẫn đào tạo theo khung chương trình và quy định của Bộ em nhé. 30% lý thuyết và 70% thời gian thực hành. Nên em yên tâm về kỹ năng tay nghề mình theo học tại trường nha em. Tuy là trường dân lập nhưng mức học phí ở tầm trung so với học phí các trường cao đẳng khác. Hihi. Sau khi tốt nghiệp, nhà trường hỗ trợ giới thiệu việc làm cho các bạn sinh viên nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành TÀI CHÍNH NGÂN HÀNG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Học phí ngành TÀI CHÍNH NGÂN HÀNG được phân bổ 6 học kỳ như sau: (83 tín chỉ - 495k/tín chỉ)
-- Học kỳ 1 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 2 (20 tín chỉ): 9.900.000 đ
-- Học kỳ 3 (14 tín chỉ): 6.930.000 đ
-- Học kỳ 4 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 5 (10 tín chỉ): 4.950.000 đ
-- Học kỳ 6 (5 tín chỉ): 2.475.000 đ
-Tổng cộng: 41.085.000 đ
-Lưu ý: Mức học phí trên chưa bao gồm:
-Lệ phí nhập học: 200.000 đ
-Đồng phục + Cẩm nang SV: 123.000 đ
-Thẻ sinh viên đa năng: 360.000 đ
-Bảo hiểm y tế: theo quy định của nhà nước
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Thời gian làm việc của trường</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Thời gian làm việc của trường:
+  </si>
+  <si>
+    <t>Chào em, hiện trường không có KTX, nhưng có bộ phận Công tác sinh viên sẽ hỗ trợ giới thiệu nhà trọ cho em nhé.
+Phòng Công tác sinh viên sẽ hỗ trợ giới thiệu nhà trọ và KTX cho các bạn. Những nhà trọ và KTX được giới thiệu sẽ ở gần trường, có các bạn sinh viên trường hiện đang ở, đảm bảo về an ninh, tùy theo điều kiện và mong muốn của từng bạn.</t>
+  </si>
+  <si>
+    <t>Nếu em đã học trường khác, em xin bảng điểm để nhà trường xem xét miễn giảm môn theo quy định cho em nha, em xin bảng điểm bên trường cũ xong, em photo sao y chứng thực, và nộp cho trường CĐ CNTT TP.HCM 1 bản photo sao y chứng thực nhé</t>
+  </si>
+  <si>
+    <t>Chào em, trường mình là trường CĐ CNTT TP.HCM thuộc Bộ Lao động thương binh xã hội và là trường dân lập em nhé. Học phí và chương trình học vẫn đào tạo theo khung chương trình và quy định của Bộ em nhé. 30% lý thuyết và 70% thời gian thực hành. Nên em yên tâm về kỹ năng tay nghề mình theo học tại trường nha em. Tuy là trường dân lập nhưng mức học phí ở tầm trung so với học phí các trường cao đẳng khác. Hihi. Sau khi tốt nghiệp, nhà trường hỗ trợ giới thiệu việc làm cho các bạn sinh viên nhé.</t>
+  </si>
+  <si>
+    <t>Thời gian làm việc của trường:
 - Buổi sáng từ 7g30 đến 11g30 (từ thứ 2 đến thứ 7). 
 - Buổi chiều từ 13g00 đến 16g30 (từ thứ 2 đến thứ 6)
-Từ 1/6/2024 đến 30/6/2024: trường làm việc từ thứ 2 đến chủ nhật (Sáng – Chiều – Tối)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HÌNH THỨC NỘP HS XÉT TUYỂN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Trường có 2 hình thức nộp hồ sơ xét tuyển em nhé:
-1. NỘP TRỰC TIẾP:
-đến trực tiếp làm hồ sơ tại trường
-2. NỘP TRỰC TUYẾN:
-Em chuẩn bị hồ sơ (theo hướng dẫn) và CHỤP HÌNH (Trên điện thoại, tải App CamScanner chụp đẹp, rõ ràng) gửi qua:
-Email: tuyensinh@itc.edu.vn
-Hoặc Zalo của trường: 0938861080 - 0975005356
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lệ phí xét tuyển: chuyển khoản theo hướng dẫn sau:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>* Tên tài khoản: TRUONG CAO DANG CNTT TP HO CHI MINH
-    * Số tài khoản: 98283888
-    * Ngân hàng: TMCP Á Châu (ACB) – PGD Thủ Thiêm TPHCM
-    * Nội dung chuyển khoản: Họ tên-MSHS- (nội dung chuyển khoản)
-    * VD: Nguyen Van A-032456123-LPXT-K24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành MARKETING</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Học phí ngành MARKETING được phân bổ 6 học kỳ như sau: (82 tín chỉ - 495k/tín chỉ)
-- Học kỳ 1 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 2 (18 tín chỉ): 8.910.000 đ
-- Học kỳ 3 (13 tín chỉ): 6.435.000 đ
-- Học kỳ 4 (16 tín chỉ): 7.920.000 đ
-- Học kỳ 5 (13 tín chỉ): 6.435.000 đ
-- Học kỳ 6 (5 tín chỉ): 2.475.000 đ
-Tổng cộng: 40.590.000 đ
-Lưu ý: Mức học phí trên chưa bao gồm:
-Lệ phí nhập học: 200.000 đ
-Đồng phục+ Cẩm nang SV: 123.000 đ
-Thẻ sinh viên đa năng: 360.000 đ
-Bảo hiểm y tế: theo quy định của nhà nước
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Hồ sơ Xét Tuyển Trung Cấp (Đối tượng tốt nghiệp THCS)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+Từ 1/6/2024 đến 30/6/2024: Trường làm việc từ thứ 2 đến chủ nhật (Sáng – Chiều – Tối)</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Em tốt nghiệp THCS, em chuẩn bị hồ sơ xét tuyển chương trình 9+ theo hướng dẫn sau nhé:
-1.Phiếu đăng ký xét tuyển vào trường Cao đẳng CNTT Tp. HCM, tải tại đây: </t>
+1.Phiếu đăng ký xét tuyển vào trường Cao đẳng CNTT TP.HCM, tải tại đây: </t>
     </r>
     <r>
       <rPr>
@@ -2431,282 +2480,35 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành LẬP TRÌNH MÁY TÍNH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành LẬP TRÌNH MÁY TÍNH được phân bổ 6 học kỳ như sau: (90 tín chỉ - 495k/tín chỉ)
-- Học kỳ 1 (18 tín chỉ): 8.910.000 đ
-- Học kỳ 2 (20 tín chỉ): 9.900.000 đ
-- Học kỳ 3 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 4 (16 tín chỉ): 7.920.000 đ
-- Học kỳ 5 (13 tín chỉ): 6.435.000 đ
-- Học kỳ 6 (6 tín chỉ): 2.970.000 đ
-Tổng cộng: 44.550.000 đ
-Lưu ý: Mức học phí trên chưa bao gồm: 
-Lệ phí nhập học: 200.000 đ
-Đồng phục + Cẩm nang SV: 123.000 đ
-Thẻ sinh viên đa năng: 360.000 đ
-Bảo hiểm y tế: theo quy định của nhà nước</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Link HS  lớp 12 đăng ký xét tuyển</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Trường đang nhận thông tin đăng ký xét tuyển đối với các bạn học sinh lớp 12, em vào link này đăng ký để nhà trường lưu thông tin ưu tiên cho em nhé: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>https://tuyensinh.itc.edu.vn/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>. Sau khi đăng ký xong, trường sẽ gửi email hướng dẫn em làm hồ sơ xét học bạ nha.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cơ hội việc làm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Hi e, về cơ hội việc làm thì sau khi tốt nghiệp em sẽ được nhà trường hỗ trợ giới thiệu việc làm nhé em. Hiện nay các doanh nghiệp tuyển Trung cấp - Cao đẳng nhiều lắm, nên em yên tâm về việc làm nha e. Hii. Có kiến thức nghề vững và có kỹ năng mềm (giao tiếp, làm việc nhóm, lập kế hoạch,...) là yên tâm về việc làm nha e.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Điều kiện nhập học cao đẳng chính quy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Hii em, trường tuyển thẳng học sinh tốt nghiệp THPT, em đậu cấp 3 và đã có bằng tốt nghiệp rồi là em đủ điều kiện nhập học Hệ CĐ 2 năm tại trường em nha.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chương trình ngành Quản trị Digital Media</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Chương trình ngành Quản trị Kinh doanh (chuyên ngành Digital Marketing) được tích hợp 3 ngành “hot” đang có nhu cầu tuyển dụng cao hiện nay: Kinh doanh Thương mại điện tử, Thiết kế đồ họa quảng cáo, Truyền thông - Marketing online. Sinh viên sẽ được đào tạo kiến thức về Quản trị kinh doanh, Thiết kế đồ họa quảng cáo, đặc biệt là Truyền thông - Marketing hiện đại, gắn với CNTT và các phương tiện truyền thông số, hiểu được vai trò thương mại điện tử trước sự phát triển rộng rãi của công nghệ thông tin và những ứng dụng của nó.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HÌNH THỨC NHẬP HỌC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Trường có 2 hình thức làm hồ sơ nhập học em nhé:
-1. NỘP TRỰC TIẾP:
-đến trực tiếp làm hồ sơ tại trường
-2. NỘP TRỰC TUYẾN:
-Hồ sơ nhập học:
-Em chuẩn bị hồ sơ (theo hướng dẫn) và CHỤP HÌNH (chụp đẹp, rõ ràng) gửi qua:
-Email: tuyensinh@itc.edu.vn
-Hoặc Zalo của trường: 0938861080
-Đóng học phí:
-Chuyển khoản qua Ngân hàng:
-Tên tài khoản: Trường Cao đẳng Công nghệ Thông tin TPHCM
-Số tài khoản: 98283888
-Ngân hàng: TMCP Á Châu (ACB) – PGD Phạm Ngọc Thạch TPHCM
-Nội dung chuyển khoản: Họ tên/MSSV/HK1-K24
-VD: Nguyen Van A/032456123/HK1-K24
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành THIẾT KẾ ĐỒ HỌA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành THIẾT KẾ ĐỒ HỌA được phân bổ 6 học kỳ như sau: (89 tín chỉ - 495k/tín chỉ)
-- Học kỳ 1 (19 tín chỉ): 9.405.000 đ
-- Học kỳ 2 (19 tín chỉ): 9.405.000 đ
-- Học kỳ 3 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 4 (14 tín chỉ): 6.930.000 đ
-- Học kỳ 5 (14 tín chỉ): 6.930.000 đ
-- Học kỳ 6 (6 tín chỉ): 2.970.000 đ
-Tổng cộng: 44.055.000 đ
+    <t>Hi e, về cơ hội việc làm thì sau khi tốt nghiệp em sẽ được nhà trường hỗ trợ giới thiệu việc làm nhé em. Hiện nay các doanh nghiệp tuyển Trung cấp - Cao đẳng nhiều lắm, nên em yên tâm về việc làm nha e. Hii. Có kiến thức nghề vững và có kỹ năng mềm (giao tiếp, làm việc nhóm, lập kế hoạch,...) là yên tâm về việc làm nha em.</t>
+  </si>
+  <si>
+    <t>Chương trình ngành Quản trị Kinh doanh (chuyên ngành Digital Marketing) được tích hợp 3 ngành “hot” đang có nhu cầu tuyển dụng cao hiện nay: Kinh doanh Thương mại điện tử, Thiết kế đồ họa quảng cáo, Truyền thông - Marketing online. Sinh viên sẽ được đào tạo kiến thức về Quản trị kinh doanh, Thiết kế đồ họa quảng cáo, đặc biệt là Truyền thông - Marketing hiện đại, gắn với CNTT và các phương tiện truyền thông số, hiểu được vai trò thương mại điện tử trước sự phát triển rộng rãi của công nghệ thông tin và những ứng dụng của nó.</t>
+  </si>
+  <si>
+    <t>TƯ VẤN</t>
+  </si>
+  <si>
+    <t>Học phí ngành CNTT (chất lượng cao) được phân bổ 6 học kỳ như sau: (97 tín chỉ - 640k/tín chỉ)
+- Học kỳ 1 (17 tín chỉ): 10.880.000 đ
+- Học kỳ 2 (19 tín chỉ): 12.160.000 đ
+- Học kỳ 3 (18 tín chỉ): 11.520.000 đ
+- Học kỳ 4 (18 tín chỉ): 11.520.000 đ
+- Học kỳ 5 (19 tín chỉ): 12.160.000 đ
+- Học kỳ 6 (6 tín chỉ): 3.840.000 đ
+Tổng cộng: 62.080.000 đ
 Lưu ý: Mức học phí trên chưa bao gồm: 
 Lệ phí nhập học: 200.000 đ
 Đồng phục+ Cẩm nang SV: 123.000 đ
 Thẻ sinh viên đa năng: 360.000 đ
 Bảo hiểm y tế: theo quy định của nhà nước</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành QUẢN TRỊ KINH DOANH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành QUẢN TRỊ KINH DOANH được phân bổ 6 học kỳ như sau: (86 tín chỉ - 495k/tín chỉ)
-- Học kỳ 1 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 2 (18 tín chỉ): 8.910.000 đ
-- Học kỳ 3 (15 tín chỉ): 7.425.000 đ
-- Học kỳ 4 (15 tín chỉ): 7.425.000 đ
-- Học kỳ 5 (16 tín chỉ): 7.920.000 đ
-- Học kỳ 6 (5 tín chỉ): 2.475.000
-Tổng cộng: 42.570.000 đ
-Lưu ý: Mức học phí trên chưa bao gồm: 
-Lệ phí nhập học: 200.000 đ
-Đồng phục+ Cẩm nang SV: 123.000 đ
-Thẻ sinh viên đa năng: 360.000 đ
-Bảo hiểm y tế: theo quy định của nhà nước</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành THIẾT KẾ TRANG WEB</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Học phí ngành THIẾT KẾ TRANG WEB được phân bổ 6 học kỳ như sau: (99 tín chỉ - 495k/tín chỉ)
-- Học kỳ 1 (18 tín chỉ): 8.910.000 đ
-- Học kỳ 2 (20 tín chỉ): 9.900.000 đ
-- Học kỳ 3 (18 tín chỉ): 8.910.000 đ
-- Học kỳ 4 (20 tín chỉ): 9.900.000 đ
-- Học kỳ 5 (17 tín chỉ): 8.415.000 đ
-- Học kỳ 6 (6 tín chỉ): 2.970.000 đ
-Tổng cộng: 42.570.000 đ
-Lưu ý: Mức học phí trên chưa bao gồm: 
-Lệ phí nhập học: 200.000 đ
-Đồng phục+ Cẩm nang SV: 123.000 đ
-Thẻ sinh viên đa năng: 360.000 đ
-Bảo hiểm y tế: theo quy định của nhà nước</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2779,8 +2581,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2792,8 +2601,14 @@
         <fgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2816,11 +2631,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -2854,6 +2678,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3189,17 +3019,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C83"/>
+  <dimension ref="A3:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="76.77734375"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
@@ -3213,728 +3043,778 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="312" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="156" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="234" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="234" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="156" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="145.19999999999999" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="8" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="171.6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="285.60000000000002" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="156" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" ht="312" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="3" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="8" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B66" s="8"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="3" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="8" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="3" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="3" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="8" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="3" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="8" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="3" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="10"/>
-      <c r="B80" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="3" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="3" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="218.4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+    </row>
+    <row r="86" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A85:C85"/>
+  </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.3" bottom="1" header="0.47" footer="0.49"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>